--- a/extras/sample-form/Table grid field plug-in sample form.xlsx
+++ b/extras/sample-form/Table grid field plug-in sample form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitoworks/Downloads/GitHub/table-grid/extras/sample-form/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D50AFE-6861-A344-B118-B599C3EF2573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EDEC5E-FEA4-C44B-BD67-987FBA4C070E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="880" windowWidth="23240" windowHeight="12440" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6440" windowWidth="23240" windowHeight="12440" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="389">
   <si>
     <t>type</t>
   </si>
@@ -2609,9 +2609,6 @@
     <t>simid</t>
   </si>
   <si>
-    <t>basic_hint</t>
-  </si>
-  <si>
     <t>This is the hint text.</t>
   </si>
   <si>
@@ -2621,12 +2618,6 @@
     <t>plugin_test_form_table_grid</t>
   </si>
   <si>
-    <t>basic_hint_note</t>
-  </si>
-  <si>
-    <t>The answer is: ${basic_hint}</t>
-  </si>
-  <si>
     <t>custom-table-grid(columns=2, rows=5, column_headers="Boys|Girls", row_headers="Grade 8|Grade 9|Grade 10|Grade 11|Grade 12")</t>
   </si>
   <si>
@@ -2637,6 +2628,30 @@
   </si>
   <si>
     <t xml:space="preserve">Enter the number students in the table below. </t>
+  </si>
+  <si>
+    <t>custom-table-grid(columns=4, rows=4, column_headers="Maize|Sorghum|Millet|Rice", row_headers="Area Planted|Produced|Quantity sold|Quantity given away")</t>
+  </si>
+  <si>
+    <t>Provide details for the following crops.</t>
+  </si>
+  <si>
+    <t>crops</t>
+  </si>
+  <si>
+    <t>crops_note</t>
+  </si>
+  <si>
+    <t>grades</t>
+  </si>
+  <si>
+    <t>grades_note</t>
+  </si>
+  <si>
+    <t>The answer is: ${grades}</t>
+  </si>
+  <si>
+    <t>The answer is: ${crops}</t>
   </si>
 </sst>
 </file>
@@ -3201,6 +3216,9 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3233,9 +3251,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="108">
@@ -3348,7 +3363,679 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
   </cellStyles>
-  <dxfs count="187">
+  <dxfs count="275">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6D9E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99BCE7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6D9E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFBA005D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2DBDA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE3E0CF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDE8C6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE7D480"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99BCE7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFBB57"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD44B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6D9E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFBA005D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2DBDA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFBFB00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE3E0CF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDE8C6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE7D480"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99BCE7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFBB57"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD44B"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5191,11 +5878,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF14"/>
+  <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5419,12 +6106,12 @@
         <v>33</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="D12" s="64"/>
+        <v>379</v>
+      </c>
+      <c r="D12" s="53"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
     </row>
@@ -5433,16 +6120,16 @@
         <v>87</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="D13" t="s">
         <v>374</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="D13" t="s">
-        <v>375</v>
-      </c>
       <c r="F13" s="9" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -5450,337 +6137,689 @@
         <v>33</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>379</v>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="D15" t="s">
+        <v>374</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:C12 B13 F1:F1048576 I1:I1048576 B14:C1048576">
-    <cfRule type="expression" dxfId="186" priority="2141" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:C12 B13 F1:F14 I1:I14 B14:C14 B17:C1048576 I17:I1048576 F17:F1048576">
+    <cfRule type="expression" dxfId="274" priority="2229" stopIfTrue="1">
       <formula>$A1="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C12 B13 I1:I1048576 B14:C1048576">
-    <cfRule type="expression" dxfId="185" priority="2138" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:C12 B13 I1:I14 B14:C14 B17:C1048576 I17:I1048576">
+    <cfRule type="expression" dxfId="273" priority="2226" stopIfTrue="1">
       <formula>$A1="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13 B1:D12 F1:F1048576 B14:D1048576">
-    <cfRule type="expression" dxfId="184" priority="2135" stopIfTrue="1">
+  <conditionalFormatting sqref="B13 B1:D12 F1:F14 B14:D14 B17:D1048576 F17:F1048576">
+    <cfRule type="expression" dxfId="272" priority="2223" stopIfTrue="1">
       <formula>$A1="text"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13 B1:D12 G1:H1048576 B14:D1048576">
-    <cfRule type="expression" dxfId="183" priority="2133" stopIfTrue="1">
+  <conditionalFormatting sqref="B13 B1:D12 G1:H14 B14:D14 B17:D1048576 G17:H1048576">
+    <cfRule type="expression" dxfId="271" priority="2221" stopIfTrue="1">
       <formula>$A1="integer"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13 B1:D12 G1:H1048576 B14:D1048576">
-    <cfRule type="expression" dxfId="182" priority="2131" stopIfTrue="1">
+  <conditionalFormatting sqref="B13 B1:D12 G1:H14 B14:D14 B17:D1048576 G17:H1048576">
+    <cfRule type="expression" dxfId="270" priority="2219" stopIfTrue="1">
       <formula>$A1="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C12 B13 F1:F1048576 B14:C1048576">
-    <cfRule type="expression" dxfId="181" priority="2126" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:C12 B13 F1:F14 B14:C14 B17:C1048576 F17:F1048576">
+    <cfRule type="expression" dxfId="269" priority="2214" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576 F1:F1048576">
-    <cfRule type="expression" dxfId="180" priority="2116" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:B14 F1:F14 F17:F1048576 B17:B1048576">
+    <cfRule type="expression" dxfId="268" priority="2204" stopIfTrue="1">
       <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C12 B13 B14:C1048576">
-    <cfRule type="expression" dxfId="179" priority="2110" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:C12 B13 B14:C14 B17:C1048576">
+    <cfRule type="expression" dxfId="267" priority="2198" stopIfTrue="1">
       <formula>$A1="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="2112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="2200" stopIfTrue="1">
       <formula>$A1="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="2114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="2202" stopIfTrue="1">
       <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="176" priority="2108" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:B14 B17:B1048576">
+    <cfRule type="expression" dxfId="264" priority="2196" stopIfTrue="1">
       <formula>OR($A1="calculate", $A1="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C12 B13 F1:F1048576 B14:C1048576">
-    <cfRule type="expression" dxfId="175" priority="2106" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:C12 B13 F1:F14 B14:C14 B17:C1048576 F17:F1048576">
+    <cfRule type="expression" dxfId="263" priority="2194" stopIfTrue="1">
       <formula>OR($A1="date", $A1="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C12 B13 F1:F1048576 B14:C1048576">
-    <cfRule type="expression" dxfId="174" priority="2102" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:C12 B13 F1:F14 B14:C14 B17:C1048576 F17:F1048576">
+    <cfRule type="expression" dxfId="262" priority="2190" stopIfTrue="1">
       <formula>$A1="image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C12 B13 B14:C1048576">
-    <cfRule type="expression" dxfId="173" priority="2100" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:C12 B13 B14:C14 B17:C1048576">
+    <cfRule type="expression" dxfId="261" priority="2188" stopIfTrue="1">
       <formula>OR($A1="audio", $A1="video")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:B13 A1:D12 N1:S1048576 E1:M13 A14:M1048576">
-    <cfRule type="expression" dxfId="172" priority="2094" stopIfTrue="1">
+  <conditionalFormatting sqref="A13:B13 A1:D12 N1:S14 E1:M13 A14:M14 A17:S1048576">
+    <cfRule type="expression" dxfId="260" priority="2182" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1, 14)="sensor_stream ", LEN($A1)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A1, 15)))), AND(LEFT($A1, 17)="sensor_statistic ", LEN($A1)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A1, 18)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="2097" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="2185" stopIfTrue="1">
       <formula>$A1="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="2101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="2189" stopIfTrue="1">
       <formula>OR($A1="audio", $A1="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="2103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="2191" stopIfTrue="1">
       <formula>$A1="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="2107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="256" priority="2195" stopIfTrue="1">
       <formula>OR($A1="date", $A1="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="2109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="2197" stopIfTrue="1">
       <formula>OR($A1="calculate", $A1="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="2111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="2199" stopIfTrue="1">
       <formula>$A1="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="2113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="253" priority="2201" stopIfTrue="1">
       <formula>$A1="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="2115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="2203" stopIfTrue="1">
       <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="2117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="2205" stopIfTrue="1">
       <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="2120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="2208" stopIfTrue="1">
       <formula>OR($A1="username", $A1="phonenumber", $A1="start", $A1="end", $A1="deviceid", $A1="subscriberid", $A1="simserial", $A1="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="2127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="2215" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="2132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="2220" stopIfTrue="1">
       <formula>$A1="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="2134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="2222" stopIfTrue="1">
       <formula>$A1="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="2136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="2224" stopIfTrue="1">
       <formula>$A1="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="2137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="2225" stopIfTrue="1">
       <formula>$A1="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="2139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="2227" stopIfTrue="1">
       <formula>$A1="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="2140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="2228" stopIfTrue="1">
       <formula>$A1="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="2142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="2230" stopIfTrue="1">
       <formula>$A1="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="153" priority="2095" stopIfTrue="1">
+  <conditionalFormatting sqref="B1:B14 B17:B1048576">
+    <cfRule type="expression" dxfId="241" priority="2183" stopIfTrue="1">
       <formula>$A1="comments"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576 B1:B1048576">
-    <cfRule type="expression" dxfId="152" priority="2093" stopIfTrue="1">
+  <conditionalFormatting sqref="F1:F14 B1:B14 B17:B1048576 F17:F1048576">
+    <cfRule type="expression" dxfId="240" priority="2181" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1, 14)="sensor_stream ", LEN($A1)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A1, 15)))), AND(LEFT($A1, 17)="sensor_statistic ", LEN($A1)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A1, 18)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="151" priority="1122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="1210" stopIfTrue="1">
       <formula>$A13="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="150" priority="1119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="1207" stopIfTrue="1">
       <formula>$A13="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="149" priority="1116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="1204" stopIfTrue="1">
       <formula>$A13="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="148" priority="1114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="1202" stopIfTrue="1">
       <formula>$A13="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="147" priority="1112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="1200" stopIfTrue="1">
       <formula>$A13="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="146" priority="1110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="1198" stopIfTrue="1">
       <formula>OR(AND(LEFT($A13, 16)="select_multiple ", LEN($A13)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A13, 17)))), AND(LEFT($A13, 11)="select_one ", LEN($A13)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A13, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="145" priority="1102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="1190" stopIfTrue="1">
       <formula>$A13="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="1104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="1192" stopIfTrue="1">
       <formula>$A13="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="1106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="1194" stopIfTrue="1">
       <formula>OR($A13="geopoint", $A13="geoshape", $A13="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="142" priority="1099" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="1187" stopIfTrue="1">
       <formula>OR($A13="date", $A13="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="141" priority="1097" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="1185" stopIfTrue="1">
       <formula>$A13="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="140" priority="1095" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="1183" stopIfTrue="1">
       <formula>OR($A13="audio", $A13="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="139" priority="1093" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="1181" stopIfTrue="1">
       <formula>OR(AND(LEFT($A13, 14)="sensor_stream ", LEN($A13)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A13, 15)))), AND(LEFT($A13, 17)="sensor_statistic ", LEN($A13)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A13, 18)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="1094" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="1182" stopIfTrue="1">
       <formula>$A13="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="1096" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="1184" stopIfTrue="1">
       <formula>OR($A13="audio", $A13="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="1098" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="1186" stopIfTrue="1">
       <formula>$A13="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="1100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="1188" stopIfTrue="1">
       <formula>OR($A13="date", $A13="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="1101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="1189" stopIfTrue="1">
       <formula>OR($A13="calculate", $A13="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="1103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="1191" stopIfTrue="1">
       <formula>$A13="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="1105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="1193" stopIfTrue="1">
       <formula>$A13="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="1107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="1195" stopIfTrue="1">
       <formula>OR($A13="geopoint", $A13="geoshape", $A13="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="1108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="1196" stopIfTrue="1">
       <formula>OR($A13="audio audit", $A13="text audit", $A13="speed violations count", $A13="speed violations list", $A13="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="1109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="1197" stopIfTrue="1">
       <formula>OR($A13="username", $A13="phonenumber", $A13="start", $A13="end", $A13="deviceid", $A13="subscriberid", $A13="simserial", $A13="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="1111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="1199" stopIfTrue="1">
       <formula>OR(AND(LEFT($A13, 16)="select_multiple ", LEN($A13)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A13, 17)))), AND(LEFT($A13, 11)="select_one ", LEN($A13)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A13, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="1113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="1201" stopIfTrue="1">
       <formula>$A13="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="1115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="1203" stopIfTrue="1">
       <formula>$A13="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="1117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="1205" stopIfTrue="1">
       <formula>$A13="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="1118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="1206" stopIfTrue="1">
       <formula>$A13="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="1120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="1208" stopIfTrue="1">
       <formula>$A13="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="1121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="1209" stopIfTrue="1">
       <formula>$A13="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="1123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="1211" stopIfTrue="1">
       <formula>$A13="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="120" priority="1056" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="1144" stopIfTrue="1">
       <formula>$A13="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="119" priority="1054" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="1142" stopIfTrue="1">
       <formula>$A13="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="118" priority="1052" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="1140" stopIfTrue="1">
       <formula>$A13="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="117" priority="1040" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="1128" stopIfTrue="1">
       <formula>OR(AND(LEFT($A13, 14)="sensor_stream ", LEN($A13)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A13, 15)))), AND(LEFT($A13, 17)="sensor_statistic ", LEN($A13)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A13, 18)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="1041" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="1129" stopIfTrue="1">
       <formula>$A13="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="1042" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="1130" stopIfTrue="1">
       <formula>OR($A13="audio", $A13="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="1043" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="1131" stopIfTrue="1">
       <formula>$A13="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="1044" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="1132" stopIfTrue="1">
       <formula>OR($A13="date", $A13="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="1045" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="1133" stopIfTrue="1">
       <formula>OR($A13="calculate", $A13="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="1046" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="1134" stopIfTrue="1">
       <formula>$A13="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="1047" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="1135" stopIfTrue="1">
       <formula>$A13="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="1048" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="1136" stopIfTrue="1">
       <formula>OR($A13="geopoint", $A13="geoshape", $A13="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="1049" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="1137" stopIfTrue="1">
       <formula>OR($A13="audio audit", $A13="text audit", $A13="speed violations count", $A13="speed violations list", $A13="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="1050" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="1138" stopIfTrue="1">
       <formula>OR($A13="username", $A13="phonenumber", $A13="start", $A13="end", $A13="deviceid", $A13="subscriberid", $A13="simserial", $A13="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="1051" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="1139" stopIfTrue="1">
       <formula>OR(AND(LEFT($A13, 16)="select_multiple ", LEN($A13)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A13, 17)))), AND(LEFT($A13, 11)="select_one ", LEN($A13)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A13, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="1053" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="1141" stopIfTrue="1">
       <formula>$A13="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="1055" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="1143" stopIfTrue="1">
       <formula>$A13="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="1057" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="1145" stopIfTrue="1">
       <formula>$A13="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="1058" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="1146" stopIfTrue="1">
       <formula>$A13="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="1059" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="1147" stopIfTrue="1">
       <formula>$A13="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="1060" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="1148" stopIfTrue="1">
       <formula>$A13="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="1061" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="1149" stopIfTrue="1">
       <formula>$A13="begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15 F15:F16 I15:I16 B16:C16">
+    <cfRule type="expression" dxfId="87" priority="87" stopIfTrue="1">
+      <formula>$A15="begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15 I15:I16 B16:C16">
+    <cfRule type="expression" dxfId="86" priority="84" stopIfTrue="1">
+      <formula>$A15="begin repeat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15 F15:F16 B16:D16">
+    <cfRule type="expression" dxfId="85" priority="81" stopIfTrue="1">
+      <formula>$A15="text"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15 G15:H16 B16:D16">
+    <cfRule type="expression" dxfId="84" priority="79" stopIfTrue="1">
+      <formula>$A15="integer"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15 G15:H16 B16:D16">
+    <cfRule type="expression" dxfId="83" priority="77" stopIfTrue="1">
+      <formula>$A15="decimal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15 F15:F16 B16:C16">
+    <cfRule type="expression" dxfId="82" priority="75" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A15, 16)="select_multiple ", LEN($A15)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A15, 17)))), AND(LEFT($A15, 11)="select_one ", LEN($A15)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A15, 12)))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:B16 F15:F16">
+    <cfRule type="expression" dxfId="81" priority="72" stopIfTrue="1">
+      <formula>OR($A15="audio audit", $A15="text audit", $A15="speed violations count", $A15="speed violations list", $A15="speed violations audit")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15 B16:C16">
+    <cfRule type="expression" dxfId="80" priority="66" stopIfTrue="1">
+      <formula>$A15="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="68" stopIfTrue="1">
+      <formula>$A15="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="70" stopIfTrue="1">
+      <formula>OR($A15="geopoint", $A15="geoshape", $A15="geotrace")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:B16">
+    <cfRule type="expression" dxfId="77" priority="64" stopIfTrue="1">
+      <formula>OR($A15="calculate", $A15="calculate_here")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15 F15:F16 B16:C16">
+    <cfRule type="expression" dxfId="76" priority="62" stopIfTrue="1">
+      <formula>OR($A15="date", $A15="datetime")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15 F15:F16 B16:C16">
+    <cfRule type="expression" dxfId="75" priority="60" stopIfTrue="1">
+      <formula>$A15="image"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15 B16:C16">
+    <cfRule type="expression" dxfId="74" priority="58" stopIfTrue="1">
+      <formula>OR($A15="audio", $A15="video")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B15 N15:S16 E15:M15 A16:M16">
+    <cfRule type="expression" dxfId="73" priority="55" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A15, 14)="sensor_stream ", LEN($A15)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A15, 15)))), AND(LEFT($A15, 17)="sensor_statistic ", LEN($A15)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A15, 18)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="57" stopIfTrue="1">
+      <formula>$A15="comments"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="59" stopIfTrue="1">
+      <formula>OR($A15="audio", $A15="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="61" stopIfTrue="1">
+      <formula>$A15="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="63" stopIfTrue="1">
+      <formula>OR($A15="date", $A15="datetime")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="65" stopIfTrue="1">
+      <formula>OR($A15="calculate", $A15="calculate_here")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="67" stopIfTrue="1">
+      <formula>$A15="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="69" stopIfTrue="1">
+      <formula>$A15="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="71" stopIfTrue="1">
+      <formula>OR($A15="geopoint", $A15="geoshape", $A15="geotrace")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="73" stopIfTrue="1">
+      <formula>OR($A15="audio audit", $A15="text audit", $A15="speed violations count", $A15="speed violations list", $A15="speed violations audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="74" stopIfTrue="1">
+      <formula>OR($A15="username", $A15="phonenumber", $A15="start", $A15="end", $A15="deviceid", $A15="subscriberid", $A15="simserial", $A15="caseid")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="76" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A15, 16)="select_multiple ", LEN($A15)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A15, 17)))), AND(LEFT($A15, 11)="select_one ", LEN($A15)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A15, 12)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="78" stopIfTrue="1">
+      <formula>$A15="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="80" stopIfTrue="1">
+      <formula>$A15="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="82" stopIfTrue="1">
+      <formula>$A15="text"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="83" stopIfTrue="1">
+      <formula>$A15="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="85" stopIfTrue="1">
+      <formula>$A15="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="86" stopIfTrue="1">
+      <formula>$A15="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="88" stopIfTrue="1">
+      <formula>$A15="begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:B16">
+    <cfRule type="expression" dxfId="54" priority="56" stopIfTrue="1">
+      <formula>$A15="comments"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15:F16 B15:B16">
+    <cfRule type="expression" dxfId="53" priority="54" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A15, 14)="sensor_stream ", LEN($A15)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A15, 15)))), AND(LEFT($A15, 17)="sensor_statistic ", LEN($A15)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A15, 18)))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="52" priority="52" stopIfTrue="1">
+      <formula>$A15="begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="51" priority="49" stopIfTrue="1">
+      <formula>$A15="begin repeat"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="50" priority="46" stopIfTrue="1">
+      <formula>$A15="text"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="49" priority="44" stopIfTrue="1">
+      <formula>$A15="integer"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="48" priority="42" stopIfTrue="1">
+      <formula>$A15="decimal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="47" priority="40" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A15, 16)="select_multiple ", LEN($A15)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A15, 17)))), AND(LEFT($A15, 11)="select_one ", LEN($A15)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A15, 12)))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="46" priority="32" stopIfTrue="1">
+      <formula>$A15="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="34" stopIfTrue="1">
+      <formula>$A15="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="36" stopIfTrue="1">
+      <formula>OR($A15="geopoint", $A15="geoshape", $A15="geotrace")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="43" priority="29" stopIfTrue="1">
+      <formula>OR($A15="date", $A15="datetime")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="42" priority="27" stopIfTrue="1">
+      <formula>$A15="image"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="41" priority="25" stopIfTrue="1">
+      <formula>OR($A15="audio", $A15="video")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="40" priority="23" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A15, 14)="sensor_stream ", LEN($A15)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A15, 15)))), AND(LEFT($A15, 17)="sensor_statistic ", LEN($A15)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A15, 18)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="24" stopIfTrue="1">
+      <formula>$A15="comments"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="26" stopIfTrue="1">
+      <formula>OR($A15="audio", $A15="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="28" stopIfTrue="1">
+      <formula>$A15="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="30" stopIfTrue="1">
+      <formula>OR($A15="date", $A15="datetime")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="31" stopIfTrue="1">
+      <formula>OR($A15="calculate", $A15="calculate_here")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="33" stopIfTrue="1">
+      <formula>$A15="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="35" stopIfTrue="1">
+      <formula>$A15="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="37" stopIfTrue="1">
+      <formula>OR($A15="geopoint", $A15="geoshape", $A15="geotrace")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="38" stopIfTrue="1">
+      <formula>OR($A15="audio audit", $A15="text audit", $A15="speed violations count", $A15="speed violations list", $A15="speed violations audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="39" stopIfTrue="1">
+      <formula>OR($A15="username", $A15="phonenumber", $A15="start", $A15="end", $A15="deviceid", $A15="subscriberid", $A15="simserial", $A15="caseid")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="41" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A15, 16)="select_multiple ", LEN($A15)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A15, 17)))), AND(LEFT($A15, 11)="select_one ", LEN($A15)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A15, 12)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="43" stopIfTrue="1">
+      <formula>$A15="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="45" stopIfTrue="1">
+      <formula>$A15="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="47" stopIfTrue="1">
+      <formula>$A15="text"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="48" stopIfTrue="1">
+      <formula>$A15="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="50" stopIfTrue="1">
+      <formula>$A15="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="51" stopIfTrue="1">
+      <formula>$A15="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="53" stopIfTrue="1">
+      <formula>$A15="begin group"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="21" priority="17" stopIfTrue="1">
+      <formula>$A15="text"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="20" priority="15" stopIfTrue="1">
+      <formula>$A15="integer"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="19" priority="13" stopIfTrue="1">
+      <formula>$A15="decimal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A15, 14)="sensor_stream ", LEN($A15)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A15, 15)))), AND(LEFT($A15, 17)="sensor_statistic ", LEN($A15)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A15, 18)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
+      <formula>$A15="comments"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="3" stopIfTrue="1">
+      <formula>OR($A15="audio", $A15="video")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="4" stopIfTrue="1">
+      <formula>$A15="image"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="5" stopIfTrue="1">
+      <formula>OR($A15="date", $A15="datetime")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="6" stopIfTrue="1">
+      <formula>OR($A15="calculate", $A15="calculate_here")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="7" stopIfTrue="1">
+      <formula>$A15="note"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="8" stopIfTrue="1">
+      <formula>$A15="barcode"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="9" stopIfTrue="1">
+      <formula>OR($A15="geopoint", $A15="geoshape", $A15="geotrace")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+      <formula>OR($A15="audio audit", $A15="text audit", $A15="speed violations count", $A15="speed violations list", $A15="speed violations audit")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="11" stopIfTrue="1">
+      <formula>OR($A15="username", $A15="phonenumber", $A15="start", $A15="end", $A15="deviceid", $A15="subscriberid", $A15="simserial", $A15="caseid")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="12" stopIfTrue="1">
+      <formula>OR(AND(LEFT($A15, 16)="select_multiple ", LEN($A15)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A15, 17)))), AND(LEFT($A15, 11)="select_one ", LEN($A15)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A15, 12)))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="14" stopIfTrue="1">
+      <formula>$A15="decimal"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="16" stopIfTrue="1">
+      <formula>$A15="integer"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="18" stopIfTrue="1">
+      <formula>$A15="text"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="19" stopIfTrue="1">
+      <formula>$A15="end repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="20" stopIfTrue="1">
+      <formula>$A15="begin repeat"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
+      <formula>$A15="end group"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="22" stopIfTrue="1">
+      <formula>$A15="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
@@ -5886,7 +6925,7 @@
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:H2000">
-    <cfRule type="expression" dxfId="98" priority="1">
+    <cfRule type="expression" dxfId="186" priority="1">
       <formula>NOT($A2=$A1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5937,14 +6976,14 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>376</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>377</v>
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2111031908</v>
+        <v>2111051344</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>358</v>
@@ -5979,22 +7018,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="55"/>
       <c r="C1" s="32"/>
     </row>
     <row r="2" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:30" s="33" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="32"/>
     </row>
     <row r="4" spans="1:30" s="33" customFormat="1" x14ac:dyDescent="0.2">
@@ -6188,10 +7227,10 @@
       <c r="C7" s="32"/>
     </row>
     <row r="8" spans="1:30" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="60" t="s">
         <v>267</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="40"/>
       <c r="D8" s="41"/>
       <c r="E8" s="41"/>
@@ -8981,10 +10020,10 @@
       <c r="AD81" s="43"/>
     </row>
     <row r="83" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="60" t="s">
+      <c r="A83" s="61" t="s">
         <v>263</v>
       </c>
-      <c r="B83" s="61"/>
+      <c r="B83" s="62"/>
       <c r="C83" s="26"/>
       <c r="D83" s="25"/>
       <c r="E83" s="30"/>
@@ -9780,348 +10819,348 @@
     <mergeCell ref="A83:B83"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:C5 H5 L5">
-    <cfRule type="expression" dxfId="97" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="97" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 L5 S5">
-    <cfRule type="expression" dxfId="96" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="94" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5 B5:F5">
-    <cfRule type="expression" dxfId="95" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="91" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J5 B5:F5">
-    <cfRule type="expression" dxfId="94" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="89" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J5 B5:F5">
-    <cfRule type="expression" dxfId="93" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="87" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="92" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="85" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5 H5">
-    <cfRule type="expression" dxfId="91" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="90" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="76" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="78" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="80" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5 R5">
-    <cfRule type="expression" dxfId="87" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="74" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="86" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="72" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="85" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="70" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="84" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="68" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="83" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="67" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="69" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="71" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="73" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="75" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="77" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="79" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="81" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="83" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="84" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="86" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="88" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="90" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="92" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="93" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="95" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="96" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="98" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="65" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="66" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="64" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="48" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="49" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="50" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="51" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="52" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="53" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="54" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="55" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="56" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="57" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="58" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="59" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="60" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="61" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="62" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="63" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="64" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="65" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="46" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="47" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="45" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="46" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="44" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="45" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="43" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="42" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="43" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="44" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="41" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="39" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="40" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="38" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="39" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="37" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="32" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="36" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="30" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="35" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="19" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="20" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="21" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="22" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="23" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="24" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="25" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="26" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="27" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="28" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="29" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="31" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="33" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="34" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="35" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="36" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="37" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="38" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="1" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="2" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="3" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="4" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="5" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="6" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="7" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="8" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="9" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="10" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="11" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="12" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="13" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="14" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="15" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="16" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="17" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="18" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10144,20 +11183,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="55"/>
     </row>
     <row r="2" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="3" spans="1:8" s="33" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="59"/>
     </row>
     <row r="4" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:8" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10232,28 +11271,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="63"/>
+      <c r="B1" s="64"/>
       <c r="C1" s="49"/>
       <c r="D1" s="49"/>
       <c r="E1" s="49"/>
       <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:8" s="33" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="49"/>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>

--- a/extras/sample-form/Table grid field plug-in sample form.xlsx
+++ b/extras/sample-form/Table grid field plug-in sample form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitoworks/Downloads/GitHub/table-grid/extras/sample-form/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EDEC5E-FEA4-C44B-BD67-987FBA4C070E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6751F686-DB89-6646-B2FF-74B5B9631EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6440" windowWidth="23240" windowHeight="12440" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3160" yWindow="1480" windowWidth="23240" windowHeight="12440" tabRatio="534" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -2630,9 +2630,6 @@
     <t xml:space="preserve">Enter the number students in the table below. </t>
   </si>
   <si>
-    <t>custom-table-grid(columns=4, rows=4, column_headers="Maize|Sorghum|Millet|Rice", row_headers="Area Planted|Produced|Quantity sold|Quantity given away")</t>
-  </si>
-  <si>
     <t>Provide details for the following crops.</t>
   </si>
   <si>
@@ -2652,6 +2649,9 @@
   </si>
   <si>
     <t>The answer is: ${crops}</t>
+  </si>
+  <si>
+    <t>custom-table-grid(data_type="number", columns=4, rows=4, column_headers="Maize|Sorghum|Millet|Rice", row_headers="Area Planted|Produced|Quantity sold|Quantity given away")</t>
   </si>
 </sst>
 </file>
@@ -3501,678 +3501,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6D9E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99BCE7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF9E004F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6D9E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFBA005D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2DBDA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE3E0CF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDE8C6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE7D480"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99BCE7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFBB57"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD44B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF9E004F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6D9E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFBA005D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2DBDA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFBFB00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE3E0CF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDE8C6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE7D480"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99BCE7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFBB57"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD44B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF9E004F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFEEB400"/>
@@ -4790,6 +4118,678 @@
           <color auto="1"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6D9E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99BCE7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6D9E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFBA005D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2DBDA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE3E0CF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDE8C6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE7D480"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99BCE7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFBB57"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD44B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6D9E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFBA005D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2DBDA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFBFB00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE3E0CF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDE8C6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE7D480"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99BCE7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFBB57"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD44B"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -5880,9 +5880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6120,7 +6120,7 @@
         <v>87</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>380</v>
@@ -6137,10 +6137,10 @@
         <v>33</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>386</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="34" x14ac:dyDescent="0.2">
@@ -6148,16 +6148,16 @@
         <v>87</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D15" t="s">
         <v>374</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -6165,660 +6165,660 @@
         <v>33</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:C12 B13 F1:F14 I1:I14 B14:C14 B17:C1048576 I17:I1048576 F17:F1048576">
-    <cfRule type="expression" dxfId="274" priority="2229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="2317" stopIfTrue="1">
       <formula>$A1="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C12 B13 I1:I14 B14:C14 B17:C1048576 I17:I1048576">
-    <cfRule type="expression" dxfId="273" priority="2226" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="2314" stopIfTrue="1">
       <formula>$A1="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13 B1:D12 F1:F14 B14:D14 B17:D1048576 F17:F1048576">
-    <cfRule type="expression" dxfId="272" priority="2223" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="2311" stopIfTrue="1">
       <formula>$A1="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13 B1:D12 G1:H14 B14:D14 B17:D1048576 G17:H1048576">
-    <cfRule type="expression" dxfId="271" priority="2221" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="2309" stopIfTrue="1">
       <formula>$A1="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13 B1:D12 G1:H14 B14:D14 B17:D1048576 G17:H1048576">
-    <cfRule type="expression" dxfId="270" priority="2219" stopIfTrue="1">
+    <cfRule type="expression" dxfId="270" priority="2307" stopIfTrue="1">
       <formula>$A1="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C12 B13 F1:F14 B14:C14 B17:C1048576 F17:F1048576">
-    <cfRule type="expression" dxfId="269" priority="2214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="269" priority="2302" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B14 F1:F14 F17:F1048576 B17:B1048576">
-    <cfRule type="expression" dxfId="268" priority="2204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="268" priority="2292" stopIfTrue="1">
       <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C12 B13 B14:C14 B17:C1048576">
-    <cfRule type="expression" dxfId="267" priority="2198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="267" priority="2286" stopIfTrue="1">
       <formula>$A1="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="2200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="266" priority="2288" stopIfTrue="1">
       <formula>$A1="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="2202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="2290" stopIfTrue="1">
       <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B14 B17:B1048576">
-    <cfRule type="expression" dxfId="264" priority="2196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="2284" stopIfTrue="1">
       <formula>OR($A1="calculate", $A1="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C12 B13 F1:F14 B14:C14 B17:C1048576 F17:F1048576">
-    <cfRule type="expression" dxfId="263" priority="2194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="2282" stopIfTrue="1">
       <formula>OR($A1="date", $A1="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C12 B13 F1:F14 B14:C14 B17:C1048576 F17:F1048576">
-    <cfRule type="expression" dxfId="262" priority="2190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="2278" stopIfTrue="1">
       <formula>$A1="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C12 B13 B14:C14 B17:C1048576">
-    <cfRule type="expression" dxfId="261" priority="2188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="2276" stopIfTrue="1">
       <formula>OR($A1="audio", $A1="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B13 A1:D12 N1:S14 E1:M13 A14:M14 A17:S1048576">
-    <cfRule type="expression" dxfId="260" priority="2182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="2270" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1, 14)="sensor_stream ", LEN($A1)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A1, 15)))), AND(LEFT($A1, 17)="sensor_statistic ", LEN($A1)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A1, 18)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="2185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="2273" stopIfTrue="1">
       <formula>$A1="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="2189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="2277" stopIfTrue="1">
       <formula>OR($A1="audio", $A1="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="2191" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="2279" stopIfTrue="1">
       <formula>$A1="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="2195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="256" priority="2283" stopIfTrue="1">
       <formula>OR($A1="date", $A1="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="2197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="2285" stopIfTrue="1">
       <formula>OR($A1="calculate", $A1="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="2199" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="2287" stopIfTrue="1">
       <formula>$A1="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="2201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="253" priority="2289" stopIfTrue="1">
       <formula>$A1="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="2203" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="2291" stopIfTrue="1">
       <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="2205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="2293" stopIfTrue="1">
       <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="2208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="2296" stopIfTrue="1">
       <formula>OR($A1="username", $A1="phonenumber", $A1="start", $A1="end", $A1="deviceid", $A1="subscriberid", $A1="simserial", $A1="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="2215" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="2303" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="2220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="2308" stopIfTrue="1">
       <formula>$A1="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="2222" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="2310" stopIfTrue="1">
       <formula>$A1="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="2224" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="2312" stopIfTrue="1">
       <formula>$A1="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="2225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="2313" stopIfTrue="1">
       <formula>$A1="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="2227" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="2315" stopIfTrue="1">
       <formula>$A1="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="2228" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="2316" stopIfTrue="1">
       <formula>$A1="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="2230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="2318" stopIfTrue="1">
       <formula>$A1="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B14 B17:B1048576">
-    <cfRule type="expression" dxfId="241" priority="2183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="2271" stopIfTrue="1">
       <formula>$A1="comments"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F14 B1:B14 B17:B1048576 F17:F1048576">
-    <cfRule type="expression" dxfId="240" priority="2181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="2269" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1, 14)="sensor_stream ", LEN($A1)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A1, 15)))), AND(LEFT($A1, 17)="sensor_statistic ", LEN($A1)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A1, 18)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="239" priority="1210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="1298" stopIfTrue="1">
       <formula>$A13="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="238" priority="1207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="1295" stopIfTrue="1">
       <formula>$A13="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="237" priority="1204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="1292" stopIfTrue="1">
       <formula>$A13="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="236" priority="1202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="1290" stopIfTrue="1">
       <formula>$A13="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="235" priority="1200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="1288" stopIfTrue="1">
       <formula>$A13="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="234" priority="1198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="1286" stopIfTrue="1">
       <formula>OR(AND(LEFT($A13, 16)="select_multiple ", LEN($A13)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A13, 17)))), AND(LEFT($A13, 11)="select_one ", LEN($A13)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A13, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="233" priority="1190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="1278" stopIfTrue="1">
       <formula>$A13="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="1192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="232" priority="1280" stopIfTrue="1">
       <formula>$A13="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="1194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="231" priority="1282" stopIfTrue="1">
       <formula>OR($A13="geopoint", $A13="geoshape", $A13="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="230" priority="1187" stopIfTrue="1">
+    <cfRule type="expression" dxfId="230" priority="1275" stopIfTrue="1">
       <formula>OR($A13="date", $A13="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="229" priority="1185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="229" priority="1273" stopIfTrue="1">
       <formula>$A13="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="228" priority="1183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="228" priority="1271" stopIfTrue="1">
       <formula>OR($A13="audio", $A13="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="227" priority="1181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="227" priority="1269" stopIfTrue="1">
       <formula>OR(AND(LEFT($A13, 14)="sensor_stream ", LEN($A13)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A13, 15)))), AND(LEFT($A13, 17)="sensor_statistic ", LEN($A13)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A13, 18)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="1182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="226" priority="1270" stopIfTrue="1">
       <formula>$A13="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="1184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="1272" stopIfTrue="1">
       <formula>OR($A13="audio", $A13="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="1186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="1274" stopIfTrue="1">
       <formula>$A13="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="1188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="1276" stopIfTrue="1">
       <formula>OR($A13="date", $A13="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="1189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="1277" stopIfTrue="1">
       <formula>OR($A13="calculate", $A13="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="1191" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="1279" stopIfTrue="1">
       <formula>$A13="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="1193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="1281" stopIfTrue="1">
       <formula>$A13="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="1195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="1283" stopIfTrue="1">
       <formula>OR($A13="geopoint", $A13="geoshape", $A13="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="1196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="1284" stopIfTrue="1">
       <formula>OR($A13="audio audit", $A13="text audit", $A13="speed violations count", $A13="speed violations list", $A13="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="1197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="1285" stopIfTrue="1">
       <formula>OR($A13="username", $A13="phonenumber", $A13="start", $A13="end", $A13="deviceid", $A13="subscriberid", $A13="simserial", $A13="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="1199" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="1287" stopIfTrue="1">
       <formula>OR(AND(LEFT($A13, 16)="select_multiple ", LEN($A13)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A13, 17)))), AND(LEFT($A13, 11)="select_one ", LEN($A13)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A13, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="1201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="1289" stopIfTrue="1">
       <formula>$A13="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="1203" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="1291" stopIfTrue="1">
       <formula>$A13="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="1205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="1293" stopIfTrue="1">
       <formula>$A13="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="1206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="1294" stopIfTrue="1">
       <formula>$A13="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="1208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="1296" stopIfTrue="1">
       <formula>$A13="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="1209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="1297" stopIfTrue="1">
       <formula>$A13="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="1211" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="1299" stopIfTrue="1">
       <formula>$A13="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="208" priority="1144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="1232" stopIfTrue="1">
       <formula>$A13="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="207" priority="1142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="1230" stopIfTrue="1">
       <formula>$A13="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="206" priority="1140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="1228" stopIfTrue="1">
       <formula>$A13="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="205" priority="1128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="1216" stopIfTrue="1">
       <formula>OR(AND(LEFT($A13, 14)="sensor_stream ", LEN($A13)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A13, 15)))), AND(LEFT($A13, 17)="sensor_statistic ", LEN($A13)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A13, 18)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="1129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="1217" stopIfTrue="1">
       <formula>$A13="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="1130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="1218" stopIfTrue="1">
       <formula>OR($A13="audio", $A13="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="1131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="1219" stopIfTrue="1">
       <formula>$A13="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="1132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="1220" stopIfTrue="1">
       <formula>OR($A13="date", $A13="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="1133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="1221" stopIfTrue="1">
       <formula>OR($A13="calculate", $A13="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="1134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="1222" stopIfTrue="1">
       <formula>$A13="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="1135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="1223" stopIfTrue="1">
       <formula>$A13="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="1136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="1224" stopIfTrue="1">
       <formula>OR($A13="geopoint", $A13="geoshape", $A13="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="1137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="1225" stopIfTrue="1">
       <formula>OR($A13="audio audit", $A13="text audit", $A13="speed violations count", $A13="speed violations list", $A13="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="1138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="1226" stopIfTrue="1">
       <formula>OR($A13="username", $A13="phonenumber", $A13="start", $A13="end", $A13="deviceid", $A13="subscriberid", $A13="simserial", $A13="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="1139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="1227" stopIfTrue="1">
       <formula>OR(AND(LEFT($A13, 16)="select_multiple ", LEN($A13)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A13, 17)))), AND(LEFT($A13, 11)="select_one ", LEN($A13)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A13, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="1141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="1229" stopIfTrue="1">
       <formula>$A13="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="1143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="1231" stopIfTrue="1">
       <formula>$A13="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="1145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="1233" stopIfTrue="1">
       <formula>$A13="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="1146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="1234" stopIfTrue="1">
       <formula>$A13="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="1147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="1235" stopIfTrue="1">
       <formula>$A13="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="1148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="1236" stopIfTrue="1">
       <formula>$A13="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="1149" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="1237" stopIfTrue="1">
       <formula>$A13="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15 F15:F16 I15:I16 B16:C16">
-    <cfRule type="expression" dxfId="87" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="175" stopIfTrue="1">
       <formula>$A15="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15 I15:I16 B16:C16">
-    <cfRule type="expression" dxfId="86" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="172" stopIfTrue="1">
       <formula>$A15="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15 F15:F16 B16:D16">
-    <cfRule type="expression" dxfId="85" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="169" stopIfTrue="1">
       <formula>$A15="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15 G15:H16 B16:D16">
-    <cfRule type="expression" dxfId="84" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="167" stopIfTrue="1">
       <formula>$A15="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15 G15:H16 B16:D16">
-    <cfRule type="expression" dxfId="83" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="165" stopIfTrue="1">
       <formula>$A15="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15 F15:F16 B16:C16">
-    <cfRule type="expression" dxfId="82" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="163" stopIfTrue="1">
       <formula>OR(AND(LEFT($A15, 16)="select_multiple ", LEN($A15)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A15, 17)))), AND(LEFT($A15, 11)="select_one ", LEN($A15)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A15, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B16 F15:F16">
-    <cfRule type="expression" dxfId="81" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="160" stopIfTrue="1">
       <formula>OR($A15="audio audit", $A15="text audit", $A15="speed violations count", $A15="speed violations list", $A15="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15 B16:C16">
-    <cfRule type="expression" dxfId="80" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="154" stopIfTrue="1">
       <formula>$A15="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="156" stopIfTrue="1">
       <formula>$A15="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="158" stopIfTrue="1">
       <formula>OR($A15="geopoint", $A15="geoshape", $A15="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B16">
-    <cfRule type="expression" dxfId="77" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="152" stopIfTrue="1">
       <formula>OR($A15="calculate", $A15="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15 F15:F16 B16:C16">
-    <cfRule type="expression" dxfId="76" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="150" stopIfTrue="1">
       <formula>OR($A15="date", $A15="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15 F15:F16 B16:C16">
-    <cfRule type="expression" dxfId="75" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="148" stopIfTrue="1">
       <formula>$A15="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15 B16:C16">
-    <cfRule type="expression" dxfId="74" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="146" stopIfTrue="1">
       <formula>OR($A15="audio", $A15="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B15 N15:S16 E15:M15 A16:M16">
-    <cfRule type="expression" dxfId="73" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="143" stopIfTrue="1">
       <formula>OR(AND(LEFT($A15, 14)="sensor_stream ", LEN($A15)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A15, 15)))), AND(LEFT($A15, 17)="sensor_statistic ", LEN($A15)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A15, 18)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="145" stopIfTrue="1">
       <formula>$A15="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="147" stopIfTrue="1">
       <formula>OR($A15="audio", $A15="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="149" stopIfTrue="1">
       <formula>$A15="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="151" stopIfTrue="1">
       <formula>OR($A15="date", $A15="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="153" stopIfTrue="1">
       <formula>OR($A15="calculate", $A15="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="155" stopIfTrue="1">
       <formula>$A15="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="157" stopIfTrue="1">
       <formula>$A15="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="159" stopIfTrue="1">
       <formula>OR($A15="geopoint", $A15="geoshape", $A15="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="161" stopIfTrue="1">
       <formula>OR($A15="audio audit", $A15="text audit", $A15="speed violations count", $A15="speed violations list", $A15="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="162" stopIfTrue="1">
       <formula>OR($A15="username", $A15="phonenumber", $A15="start", $A15="end", $A15="deviceid", $A15="subscriberid", $A15="simserial", $A15="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="164" stopIfTrue="1">
       <formula>OR(AND(LEFT($A15, 16)="select_multiple ", LEN($A15)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A15, 17)))), AND(LEFT($A15, 11)="select_one ", LEN($A15)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A15, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="166" stopIfTrue="1">
       <formula>$A15="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="168" stopIfTrue="1">
       <formula>$A15="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="170" stopIfTrue="1">
       <formula>$A15="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="171" stopIfTrue="1">
       <formula>$A15="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="173" stopIfTrue="1">
       <formula>$A15="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="174" stopIfTrue="1">
       <formula>$A15="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="176" stopIfTrue="1">
       <formula>$A15="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B16">
-    <cfRule type="expression" dxfId="54" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="144" stopIfTrue="1">
       <formula>$A15="comments"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16 B15:B16">
-    <cfRule type="expression" dxfId="53" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="142" stopIfTrue="1">
       <formula>OR(AND(LEFT($A15, 14)="sensor_stream ", LEN($A15)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A15, 15)))), AND(LEFT($A15, 17)="sensor_statistic ", LEN($A15)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A15, 18)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="52" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="140" stopIfTrue="1">
       <formula>$A15="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="51" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="137" stopIfTrue="1">
       <formula>$A15="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="50" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="134" stopIfTrue="1">
       <formula>$A15="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="49" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="132" stopIfTrue="1">
       <formula>$A15="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="48" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="130" stopIfTrue="1">
       <formula>$A15="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="47" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="128" stopIfTrue="1">
       <formula>OR(AND(LEFT($A15, 16)="select_multiple ", LEN($A15)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A15, 17)))), AND(LEFT($A15, 11)="select_one ", LEN($A15)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A15, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="46" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="120" stopIfTrue="1">
       <formula>$A15="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="122" stopIfTrue="1">
       <formula>$A15="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="124" stopIfTrue="1">
       <formula>OR($A15="geopoint", $A15="geoshape", $A15="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="43" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="117" stopIfTrue="1">
       <formula>OR($A15="date", $A15="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="42" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="115" stopIfTrue="1">
       <formula>$A15="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="41" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="113" stopIfTrue="1">
       <formula>OR($A15="audio", $A15="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="40" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="111" stopIfTrue="1">
       <formula>OR(AND(LEFT($A15, 14)="sensor_stream ", LEN($A15)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A15, 15)))), AND(LEFT($A15, 17)="sensor_statistic ", LEN($A15)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A15, 18)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="112" stopIfTrue="1">
       <formula>$A15="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="114" stopIfTrue="1">
       <formula>OR($A15="audio", $A15="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="116" stopIfTrue="1">
       <formula>$A15="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="118" stopIfTrue="1">
       <formula>OR($A15="date", $A15="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="119" stopIfTrue="1">
       <formula>OR($A15="calculate", $A15="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="121" stopIfTrue="1">
       <formula>$A15="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="123" stopIfTrue="1">
       <formula>$A15="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="125" stopIfTrue="1">
       <formula>OR($A15="geopoint", $A15="geoshape", $A15="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="126" stopIfTrue="1">
       <formula>OR($A15="audio audit", $A15="text audit", $A15="speed violations count", $A15="speed violations list", $A15="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="127" stopIfTrue="1">
       <formula>OR($A15="username", $A15="phonenumber", $A15="start", $A15="end", $A15="deviceid", $A15="subscriberid", $A15="simserial", $A15="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="129" stopIfTrue="1">
       <formula>OR(AND(LEFT($A15, 16)="select_multiple ", LEN($A15)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A15, 17)))), AND(LEFT($A15, 11)="select_one ", LEN($A15)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A15, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="131" stopIfTrue="1">
       <formula>$A15="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="133" stopIfTrue="1">
       <formula>$A15="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="135" stopIfTrue="1">
       <formula>$A15="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="136" stopIfTrue="1">
       <formula>$A15="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="138" stopIfTrue="1">
       <formula>$A15="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="139" stopIfTrue="1">
       <formula>$A15="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="141" stopIfTrue="1">
       <formula>$A15="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="21" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="105" stopIfTrue="1">
       <formula>$A15="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="20" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="103" stopIfTrue="1">
       <formula>$A15="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="19" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="101" stopIfTrue="1">
       <formula>$A15="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="89" stopIfTrue="1">
       <formula>OR(AND(LEFT($A15, 14)="sensor_stream ", LEN($A15)&gt;14, NOT(ISNUMBER(SEARCH(" ", $A15, 15)))), AND(LEFT($A15, 17)="sensor_statistic ", LEN($A15)&gt;17, NOT(ISNUMBER(SEARCH(" ", $A15, 18)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="90" stopIfTrue="1">
       <formula>$A15="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="91" stopIfTrue="1">
       <formula>OR($A15="audio", $A15="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="92" stopIfTrue="1">
       <formula>$A15="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="93" stopIfTrue="1">
       <formula>OR($A15="date", $A15="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="94" stopIfTrue="1">
       <formula>OR($A15="calculate", $A15="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="95" stopIfTrue="1">
       <formula>$A15="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="96" stopIfTrue="1">
       <formula>$A15="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="97" stopIfTrue="1">
       <formula>OR($A15="geopoint", $A15="geoshape", $A15="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="98" stopIfTrue="1">
       <formula>OR($A15="audio audit", $A15="text audit", $A15="speed violations count", $A15="speed violations list", $A15="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="99" stopIfTrue="1">
       <formula>OR($A15="username", $A15="phonenumber", $A15="start", $A15="end", $A15="deviceid", $A15="subscriberid", $A15="simserial", $A15="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="100" stopIfTrue="1">
       <formula>OR(AND(LEFT($A15, 16)="select_multiple ", LEN($A15)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A15, 17)))), AND(LEFT($A15, 11)="select_one ", LEN($A15)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A15, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="102" stopIfTrue="1">
       <formula>$A15="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="104" stopIfTrue="1">
       <formula>$A15="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="106" stopIfTrue="1">
       <formula>$A15="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="107" stopIfTrue="1">
       <formula>$A15="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="108" stopIfTrue="1">
       <formula>$A15="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="109" stopIfTrue="1">
       <formula>$A15="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="110" stopIfTrue="1">
       <formula>$A15="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6925,7 +6925,7 @@
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:H2000">
-    <cfRule type="expression" dxfId="186" priority="1">
+    <cfRule type="expression" dxfId="98" priority="1">
       <formula>NOT($A2=$A1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6939,8 +6939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6983,7 +6983,7 @@
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2111051344</v>
+        <v>2111231643</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>358</v>
@@ -7575,7 +7575,7 @@
       <c r="AC17" s="43"/>
       <c r="AD17" s="43"/>
     </row>
-    <row r="18" spans="1:30" s="45" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" s="45" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="43" t="s">
         <v>93</v>
       </c>
@@ -10819,348 +10819,348 @@
     <mergeCell ref="A83:B83"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:C5 H5 L5">
-    <cfRule type="expression" dxfId="185" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="97" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 L5 S5">
-    <cfRule type="expression" dxfId="184" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="94" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5 B5:F5">
-    <cfRule type="expression" dxfId="183" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="91" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J5 B5:F5">
-    <cfRule type="expression" dxfId="182" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="89" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J5 B5:F5">
-    <cfRule type="expression" dxfId="181" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="87" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="180" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="85" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5 H5">
-    <cfRule type="expression" dxfId="179" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="82" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="178" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="76" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="78" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="80" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5 R5">
-    <cfRule type="expression" dxfId="175" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="74" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="174" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="72" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="173" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="70" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="172" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="68" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="171" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="67" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="69" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="71" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="73" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="75" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="77" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="79" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="81" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="83" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="84" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="86" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="88" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="90" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="92" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="93" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="95" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="96" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="98" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="153" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="66" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="152" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="48" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="49" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="50" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="51" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="52" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="53" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="54" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="55" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="56" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="57" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="58" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="59" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="60" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="61" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="62" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="63" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="64" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="65" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="134" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="47" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="133" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="46" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="132" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="45" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="131" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="42" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="43" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="44" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="128" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="127" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="40" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="126" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="39" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="125" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="32" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="124" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="30" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="123" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="19" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="20" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="21" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="22" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="23" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="24" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="25" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="26" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="29" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="31" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="33" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="34" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="35" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="36" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="37" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="38" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="105" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="13" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="14" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="16" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="18" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/extras/sample-form/Table grid field plug-in sample form.xlsx
+++ b/extras/sample-form/Table grid field plug-in sample form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitoworks/Downloads/GitHub/table-grid/extras/sample-form/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6751F686-DB89-6646-B2FF-74B5B9631EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193F3C98-074E-A64D-B8CB-3B49407681EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="1480" windowWidth="23240" windowHeight="12440" tabRatio="534" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3160" yWindow="1480" windowWidth="23240" windowHeight="12440" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -2612,21 +2612,12 @@
     <t>This is the hint text.</t>
   </si>
   <si>
-    <t>Plug-in test form - table grid</t>
-  </si>
-  <si>
-    <t>plugin_test_form_table_grid</t>
-  </si>
-  <si>
     <t>custom-table-grid(columns=2, rows=5, column_headers="Boys|Girls", row_headers="Grade 8|Grade 9|Grade 10|Grade 11|Grade 12")</t>
   </si>
   <si>
     <t>intro_note</t>
   </si>
   <si>
-    <t>Welcome to this sample form.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enter the number students in the table below. </t>
   </si>
   <si>
@@ -2651,7 +2642,16 @@
     <t>The answer is: ${crops}</t>
   </si>
   <si>
-    <t>custom-table-grid(data_type="number", columns=4, rows=4, column_headers="Maize|Sorghum|Millet|Rice", row_headers="Area Planted|Produced|Quantity sold|Quantity given away")</t>
+    <t>Sample form - table grid field plug-in</t>
+  </si>
+  <si>
+    <t>sample_form_table_grid</t>
+  </si>
+  <si>
+    <t>numbers custom-table-grid(columns=4, rows=4, column_headers="Maize|Sorghum|Millet|Rice", row_headers="Area Planted|Produced|Quantity sold|Quantity given away")</t>
+  </si>
+  <si>
+    <t>Welcome to this sample form..</t>
   </si>
 </sst>
 </file>
@@ -5880,9 +5880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6106,10 +6106,10 @@
         <v>33</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="D12" s="53"/>
       <c r="I12" s="11"/>
@@ -6120,16 +6120,16 @@
         <v>87</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D13" t="s">
         <v>374</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -6137,10 +6137,10 @@
         <v>33</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="34" x14ac:dyDescent="0.2">
@@ -6148,16 +6148,16 @@
         <v>87</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D15" t="s">
         <v>374</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -6165,10 +6165,10 @@
         <v>33</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -6939,8 +6939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6976,14 +6976,14 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2111231643</v>
+        <v>2111301608</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>358</v>

--- a/extras/sample-form/Table grid field plug-in sample form.xlsx
+++ b/extras/sample-form/Table grid field plug-in sample form.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitoworks/Downloads/GitHub/table-grid/extras/sample-form/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193F3C98-074E-A64D-B8CB-3B49407681EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C197CEBF-4FB7-BE4E-9238-4AAFFD94B109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3160" yWindow="1480" windowWidth="23240" windowHeight="12440" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="390">
   <si>
     <t>type</t>
   </si>
@@ -2652,6 +2652,9 @@
   </si>
   <si>
     <t>Welcome to this sample form..</t>
+  </si>
+  <si>
+    <t>This is the hint tex.</t>
   </si>
 </sst>
 </file>
@@ -5882,7 +5885,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6126,7 +6129,7 @@
         <v>377</v>
       </c>
       <c r="D13" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>375</v>
@@ -6983,7 +6986,7 @@
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2111301608</v>
+        <v>2112211610</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>358</v>

--- a/extras/sample-form/Table grid field plug-in sample form.xlsx
+++ b/extras/sample-form/Table grid field plug-in sample form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitoworks/Downloads/GitHub/table-grid/extras/sample-form/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C197CEBF-4FB7-BE4E-9238-4AAFFD94B109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C704C7AA-1F4F-C340-B1E7-9C730BC393D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3160" yWindow="1480" windowWidth="23240" windowHeight="12440" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6986,7 +6986,7 @@
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2112211610</v>
+        <v>2112211613</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>358</v>

--- a/extras/sample-form/Table grid field plug-in sample form.xlsx
+++ b/extras/sample-form/Table grid field plug-in sample form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitoworks/Downloads/GitHub/table-grid/extras/sample-form/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C704C7AA-1F4F-C340-B1E7-9C730BC393D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD14B5B-E26C-E841-A8EE-85C85A542308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3160" yWindow="1480" windowWidth="23240" windowHeight="12440" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="391">
   <si>
     <t>type</t>
   </si>
@@ -2655,6 +2655,9 @@
   </si>
   <si>
     <t>This is the hint tex.</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -5883,9 +5886,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6134,6 +6137,9 @@
       <c r="F13" s="9" t="s">
         <v>375</v>
       </c>
+      <c r="K13" s="9" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="14" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
@@ -6943,7 +6949,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6986,7 +6992,7 @@
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2112211613</v>
+        <v>2201121118</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>358</v>

--- a/extras/sample-form/Table grid field plug-in sample form.xlsx
+++ b/extras/sample-form/Table grid field plug-in sample form.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11009"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitoworks/Downloads/GitHub/table-grid/extras/sample-form/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitoworks/Downloads/GitHub/table-grid-surveycto/extras/sample-form/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD14B5B-E26C-E841-A8EE-85C85A542308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF229495-8B04-F542-BA30-0A79536073F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3160" yWindow="1480" windowWidth="23240" windowHeight="12440" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2618,9 +2618,6 @@
     <t>intro_note</t>
   </si>
   <si>
-    <t xml:space="preserve">Enter the number students in the table below. </t>
-  </si>
-  <si>
     <t>Provide details for the following crops.</t>
   </si>
   <si>
@@ -2658,6 +2655,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the number of students in the table below. </t>
   </si>
 </sst>
 </file>
@@ -5886,9 +5886,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6115,7 +6115,7 @@
         <v>376</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D12" s="53"/>
       <c r="I12" s="11"/>
@@ -6126,19 +6126,19 @@
         <v>87</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="D13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>375</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -6146,10 +6146,10 @@
         <v>33</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>382</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="34" x14ac:dyDescent="0.2">
@@ -6157,16 +6157,16 @@
         <v>87</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D15" t="s">
         <v>374</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -6174,10 +6174,10 @@
         <v>33</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -6985,14 +6985,14 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>385</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>386</v>
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2201121118</v>
+        <v>2210141154</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>358</v>

--- a/extras/sample-form/Table grid field plug-in sample form.xlsx
+++ b/extras/sample-form/Table grid field plug-in sample form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitoworks/Downloads/GitHub/table-grid-surveycto/extras/sample-form/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF229495-8B04-F542-BA30-0A79536073F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE080BC1-F5DC-2348-8D60-513041B596D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3160" yWindow="1480" windowWidth="23240" windowHeight="12440" tabRatio="534" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="390">
   <si>
     <t>type</t>
   </si>
@@ -2649,9 +2649,6 @@
   </si>
   <si>
     <t>Welcome to this sample form..</t>
-  </si>
-  <si>
-    <t>This is the hint tex.</t>
   </si>
   <si>
     <t>yes</t>
@@ -5888,7 +5885,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6129,16 +6126,16 @@
         <v>380</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D13" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>375</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -6992,7 +6989,7 @@
       </c>
       <c r="C2" s="17" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2210141154</v>
+        <v>2210141228</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>358</v>
